--- a/GameMaster/RPGTale/Data/Data_Excel/CampMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/CampMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7756DE-E458-4298-B24A-DF2F8D94D9AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF39ADC-B882-47B0-A89C-9D5AB1178C36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="1710" windowWidth="22035" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CampData" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/CampMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/CampMetaData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D64604-8298-4061-9190-6948B47E25B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B182986B-D7F3-43D2-BFB0-8D275379CF3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="960" windowWidth="21030" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="1980" windowWidth="21030" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CampData" sheetId="1" r:id="rId1"/>
+    <sheet name="CampData" sheetId="4" r:id="rId1"/>
     <sheet name="CampCreedData" sheetId="2" r:id="rId2"/>
     <sheet name="CampAttributeData" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>CampID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,34 @@
   </si>
   <si>
     <t>SpriteOutput/Camp/CampIcon/CampAttribute_Icon_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CampName_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CampDesc_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CampType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributeIDList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderPresetList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,13 +288,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -281,11 +324,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -565,210 +612,310 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A3F98A-8626-4879-9690-27C0FFC721CD}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="42.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="19" width="9" style="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="15.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>20</v>
       </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>20</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>30</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>40</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>50</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>60</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -777,7 +924,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -903,7 +1050,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/CampMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/CampMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B182986B-D7F3-43D2-BFB0-8D275379CF3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41236C0A-F3A2-41BA-A0C9-435F6DA1084C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="1980" windowWidth="21030" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="1830" windowWidth="21030" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CampData" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>CampID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,22 @@
   </si>
   <si>
     <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HardLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Camp/CampBG/CampBG_Icon_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Camp/CampBG/CampBG_Icon_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Camp/CampIcon/Camp_Icon_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A3F98A-8626-4879-9690-27C0FFC721CD}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -627,13 +643,14 @@
     <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="15.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -656,19 +673,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -691,19 +711,22 @@
         <v>57</v>
       </c>
       <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
         <v>20</v>
       </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -720,25 +743,28 @@
         <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
         <v>20</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -758,22 +784,25 @@
         <v>56</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
         <v>30</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -790,25 +819,28 @@
         <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
         <v>40</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>4</v>
       </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
       <c r="K5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -828,22 +860,25 @@
         <v>56</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>50</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -860,25 +895,28 @@
         <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
         <v>60</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>6</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>100</v>
       </c>
@@ -901,21 +939,25 @@
         <v>57</v>
       </c>
       <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
       <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/GameMaster/RPGTale/Data/Data_Excel/CampMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/CampMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41236C0A-F3A2-41BA-A0C9-435F6DA1084C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9448B6E8-CA8A-43E9-8922-234089984FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="1830" windowWidth="21030" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="1125" windowWidth="21030" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CampData" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
   <si>
     <t>CampID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>SpriteOutput/Camp/CampIcon/Camp_Icon_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeaderSelectPresetList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,5,6,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A3F98A-8626-4879-9690-27C0FFC721CD}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -648,9 +660,10 @@
     <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="12" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,8 +700,11 @@
       <c r="L1" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -725,8 +741,11 @@
       <c r="L2" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -763,8 +782,11 @@
       <c r="L3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -801,8 +823,11 @@
       <c r="L4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -839,8 +864,11 @@
       <c r="L5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -877,8 +905,11 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -915,8 +946,11 @@
       <c r="L7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>100</v>
       </c>
@@ -952,6 +986,9 @@
       </c>
       <c r="L8" s="1">
         <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
